--- a/Data/Survey2/R/GameQuestionnaire (Responses).xlsx
+++ b/Data/Survey2/R/GameQuestionnaire (Responses).xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Form responses 1" state="visible" r:id="rId3"/>
+    <sheet name="Form responses 1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
 </workbook>
 </file>
 
@@ -473,16 +473,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -494,33 +496,36 @@
   </fills>
   <borders count="2">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="164" borderId="1" applyFont="1" fontId="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -532,553 +537,900 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane topLeftCell="A2" ySplit="1.0" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="B3" activeCell="B3" pane="bottomLeft"/>
+      <pane ySplit="1.0" activePane="bottomLeft" topLeftCell="B3" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P5" sqref="P5:P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" customWidth="1" max="3" width="21.57"/>
-    <col min="4" customWidth="1" max="4" width="29.29"/>
-    <col min="5" customWidth="1" max="17" width="21.57"/>
+    <col outlineLevel="0" min="1" max="3" width="21.57" customWidth="1" hidden="0"/>
+    <col outlineLevel="0" min="4" max="4" width="29.29" customWidth="1" hidden="0"/>
+    <col outlineLevel="0" min="5" max="15" width="21.57" customWidth="1" hidden="0"/>
+    <col outlineLevel="0" min="16" max="16" width="13.0" customWidth="1" hidden="0"/>
+    <col outlineLevel="0" min="17" max="17" width="21.57" customWidth="1" style="0" hidden="0"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" r="A1">
-        <v>0</v>
-      </c>
-      <c t="s" r="B1">
-        <v>1</v>
-      </c>
-      <c t="s" r="C1">
-        <v>2</v>
-      </c>
-      <c t="s" r="D1">
-        <v>3</v>
-      </c>
-      <c t="s" r="E1">
-        <v>4</v>
-      </c>
-      <c t="s" r="F1">
-        <v>5</v>
-      </c>
-      <c t="s" r="G1">
-        <v>6</v>
-      </c>
-      <c t="s" r="H1">
-        <v>7</v>
-      </c>
-      <c t="s" r="I1">
-        <v>8</v>
-      </c>
-      <c t="s" r="J1">
-        <v>9</v>
-      </c>
-      <c t="s" r="K1">
-        <v>10</v>
-      </c>
-      <c t="s" r="L1">
-        <v>11</v>
-      </c>
-      <c t="s" r="M1">
-        <v>12</v>
-      </c>
-      <c t="s" r="N1">
-        <v>13</v>
-      </c>
-      <c t="s" r="O1">
-        <v>14</v>
-      </c>
-      <c t="s" r="P1">
-        <v>15</v>
-      </c>
-      <c t="s" r="Q1">
-        <v>16</v>
+    <row r="1" spans="1:50" ht="15.75">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Clarity</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Flow</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Fun</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Frequent User</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Identify our Game’s General Category</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Biases Towards That Category</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Comparable Games</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Strongest Point</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Weakest Point</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>One Change</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>One Change</t>
+        </is>
       </c>
     </row>
-    <row r="2">
-      <c s="1" r="A2">
+    <row r="2" spans="1:50" ht="15.75">
+      <c r="A2" t="n" s="1">
         <v>41962.69758288194</v>
       </c>
-      <c s="2" r="B2">
+      <c r="B2" t="n" s="2">
         <v>62.0</v>
       </c>
-      <c t="s" s="2" r="C2">
-        <v>17</v>
-      </c>
-      <c t="s" s="2" r="D2">
-        <v>18</v>
-      </c>
-      <c t="s" s="2" r="E2">
-        <v>19</v>
-      </c>
-      <c t="s" s="2" r="F2">
-        <v>20</v>
-      </c>
-      <c t="s" s="2" r="G2">
-        <v>21</v>
-      </c>
-      <c t="s" s="2" r="H2">
-        <v>22</v>
-      </c>
-      <c t="s" s="2" r="I2">
-        <v>23</v>
-      </c>
-      <c t="s" s="2" r="J2">
-        <v>24</v>
-      </c>
-      <c t="s" s="2" r="K2">
-        <v>25</v>
-      </c>
-      <c t="s" s="2" r="L2">
-        <v>26</v>
-      </c>
-      <c t="s" s="2" r="P2">
-        <v>27</v>
-      </c>
-      <c t="s" s="2" r="Q2">
-        <v>28</v>
+      <c r="C2" t="inlineStr" s="2">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr" s="2">
+        <is>
+          <t>5. Somewhat streamlined layout / Rules are somewhat clear and easy to understand.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr" s="2">
+        <is>
+          <t>7. No unnecessary procedures / Minimal to no fiddliness / Very few if any exceptions to rules / Very streamlined.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr" s="2">
+        <is>
+          <t>5. More balanced than imbalanced / Has some small areas with loopholes that need fixing / Many of the luck elements are appropriate but a few are still too significant.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr" s="2">
+        <is>
+          <t>5. The game’s length is somewhat too short or too long for what it offers.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr" s="2">
+        <is>
+          <t>5. The mechanics and the theme are a fairly good match / A few elements of the game do not “fit” well but most of them do.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr" s="2">
+        <is>
+          <t>5. Some moments of emotional connection or tension during the game / Somewhat interesting theme / The game was somewhat fun to play but still had a few areas that were lacking.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr" s="2">
+        <is>
+          <t>Almost never</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr" s="2">
+        <is>
+          <t>Puzzle</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr" s="2">
+        <is>
+          <t>Depends on the game</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr" s="2">
+        <is>
+          <t>You would have to indicate the number of the level</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr" s="2">
+        <is>
+          <t>You would have to indicate the number of the level</t>
+        </is>
       </c>
     </row>
-    <row r="3">
-      <c s="1" r="A3">
+    <row r="3" spans="1:50" ht="15.75">
+      <c r="A3" t="n" s="1">
         <v>41962.744751342594</v>
       </c>
-      <c s="2" r="B3">
+      <c r="B3" t="n" s="2">
         <v>200.0</v>
       </c>
-      <c t="s" s="2" r="C3">
-        <v>29</v>
-      </c>
-      <c t="s" s="2" r="D3">
-        <v>30</v>
-      </c>
-      <c t="s" s="2" r="E3">
-        <v>31</v>
-      </c>
-      <c t="s" s="2" r="F3">
-        <v>32</v>
-      </c>
-      <c t="s" s="2" r="G3">
-        <v>33</v>
-      </c>
-      <c t="s" s="2" r="H3">
-        <v>34</v>
-      </c>
-      <c t="s" s="2" r="I3">
-        <v>35</v>
-      </c>
-      <c t="s" s="2" r="J3">
-        <v>36</v>
-      </c>
-      <c t="s" s="2" r="K3">
-        <v>37</v>
-      </c>
-      <c t="s" s="2" r="L3">
-        <v>38</v>
-      </c>
-      <c t="s" s="2" r="M3">
-        <v>39</v>
-      </c>
-      <c t="s" s="2" r="N3">
-        <v>40</v>
-      </c>
-      <c t="s" s="2" r="O3">
-        <v>41</v>
-      </c>
-      <c t="s" s="2" r="P3">
-        <v>42</v>
+      <c r="C3" t="inlineStr" s="2">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr" s="2">
+        <is>
+          <t>7. Very streamlined layout / The players can easily see what is going on in all areas of the game / Rules are very clear and easy to understand (no areas of ambiguity).</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr" s="2">
+        <is>
+          <t>7. No unnecessary procedures / Minimal to no fiddliness / Very few if any exceptions to rules / Very streamlined.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr" s="2">
+        <is>
+          <t>7. Very balanced game that is fair / No strategic loopholes / Any and all elements of luck in the game are appropriate in their significance.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr" s="2">
+        <is>
+          <t>7. The game’s length is appropriate for what it offers.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr" s="2">
+        <is>
+          <t>7. The mechanics and the theme strongly compliment each other / The various elements strongly integrate to create a unified game.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr" s="2">
+        <is>
+          <t>7. Consistent emotional connection or tension throughout the game / Very interesting theme that strongly engages the imagination of the players / The game was very fun to play.</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr" s="2">
+        <is>
+          <t>Almost never</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr" s="2">
+        <is>
+          <t>action</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr" s="2">
+        <is>
+          <t>Depends on the game</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr" s="2">
+        <is>
+          <t>angry birds</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr" s="2">
+        <is>
+          <t>the cheese</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr" s="2">
+        <is>
+          <t>the mouse</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr" s="2">
+        <is>
+          <t>more cheese</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr" s="2">
+        <is>
+          <t>more cheese</t>
+        </is>
       </c>
     </row>
-    <row r="4">
-      <c s="1" r="A4">
+    <row r="4" spans="1:50" ht="15.75">
+      <c r="A4" t="n" s="1">
         <v>41962.78486818287</v>
       </c>
-      <c s="2" r="B4">
+      <c r="B4" t="n" s="2">
         <v>22.0</v>
       </c>
-      <c t="s" s="2" r="C4">
-        <v>43</v>
-      </c>
-      <c t="s" s="2" r="D4">
-        <v>44</v>
-      </c>
-      <c t="s" s="2" r="E4">
-        <v>45</v>
-      </c>
-      <c t="s" s="2" r="F4">
-        <v>46</v>
-      </c>
-      <c t="s" s="2" r="G4">
-        <v>47</v>
-      </c>
-      <c t="s" s="2" r="H4">
-        <v>48</v>
-      </c>
-      <c t="s" s="2" r="I4">
-        <v>49</v>
-      </c>
-      <c t="s" s="2" r="J4">
-        <v>50</v>
-      </c>
-      <c t="s" s="2" r="K4">
-        <v>51</v>
-      </c>
-      <c t="s" s="2" r="L4">
-        <v>52</v>
-      </c>
-      <c t="s" s="2" r="N4">
-        <v>53</v>
-      </c>
-      <c t="s" s="2" r="O4">
-        <v>54</v>
-      </c>
-      <c t="s" s="2" r="P4">
-        <v>55</v>
+      <c r="C4" t="inlineStr" s="2">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr" s="2">
+        <is>
+          <t>7. Very streamlined layout / The players can easily see what is going on in all areas of the game / Rules are very clear and easy to understand (no areas of ambiguity).</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr" s="2">
+        <is>
+          <t>7. No unnecessary procedures / Minimal to no fiddliness / Very few if any exceptions to rules / Very streamlined.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr" s="2">
+        <is>
+          <t>6. In between</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr" s="2">
+        <is>
+          <t>5. The game’s length is somewhat too short or too long for what it offers.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr" s="2">
+        <is>
+          <t>7. The mechanics and the theme strongly compliment each other / The various elements strongly integrate to create a unified game.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr" s="2">
+        <is>
+          <t>5. Some moments of emotional connection or tension during the game / Somewhat interesting theme / The game was somewhat fun to play but still had a few areas that were lacking.</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr" s="2">
+        <is>
+          <t>Weekly</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr" s="2">
+        <is>
+          <t>Puzzle</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr" s="2">
+        <is>
+          <t>Depends on the game</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr" s="2">
+        <is>
+          <t>cheese</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr" s="2">
+        <is>
+          <t>I would speed up the mice movement in the early levels a little bit</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr" s="2">
+        <is>
+          <t>add other types of vermin</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr" s="2">
+        <is>
+          <t>add other types of vermin</t>
+        </is>
       </c>
     </row>
-    <row r="5">
-      <c s="1" r="A5">
+    <row r="5" spans="1:50" ht="15.75">
+      <c r="A5" t="n" s="1">
         <v>41962.87898606482</v>
       </c>
-      <c s="2" r="B5">
+      <c r="B5" t="n" s="2">
         <v>24.0</v>
       </c>
-      <c t="s" s="2" r="C5">
-        <v>56</v>
-      </c>
-      <c t="s" s="2" r="D5">
-        <v>57</v>
-      </c>
-      <c t="s" s="2" r="E5">
-        <v>58</v>
-      </c>
-      <c t="s" s="2" r="F5">
-        <v>59</v>
-      </c>
-      <c t="s" s="2" r="G5">
-        <v>60</v>
-      </c>
-      <c t="s" s="2" r="H5">
-        <v>61</v>
-      </c>
-      <c t="s" s="2" r="I5">
-        <v>62</v>
-      </c>
-      <c t="s" s="2" r="J5">
-        <v>63</v>
-      </c>
-      <c t="s" s="2" r="K5">
-        <v>64</v>
-      </c>
-      <c t="s" s="2" r="L5">
-        <v>65</v>
-      </c>
-      <c t="s" s="2" r="M5">
-        <v>66</v>
-      </c>
-      <c t="s" s="2" r="P5">
-        <v>67</v>
+      <c r="C5" t="inlineStr" s="2">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr" s="2">
+        <is>
+          <t>5. Somewhat streamlined layout / Rules are somewhat clear and easy to understand.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr" s="2">
+        <is>
+          <t>6. In between</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr" s="2">
+        <is>
+          <t>5. More balanced than imbalanced / Has some small areas with loopholes that need fixing / Many of the luck elements are appropriate but a few are still too significant.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr" s="2">
+        <is>
+          <t>4. In between</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr" s="2">
+        <is>
+          <t>6. In between</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr" s="2">
+        <is>
+          <t>4. In between</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr" s="2">
+        <is>
+          <t>Daily</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr" s="2">
+        <is>
+          <t>Puzzle, Skill</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr" s="2">
+        <is>
+          <t>Depends on the game</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr" s="2">
+        <is>
+          <t>2048, cut the rope</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr" s="2">
+        <is>
+          <t>- Wait a few seconds before the mice run, at least half a second to see the options.
+- integrate a menu between levels to show on what level you are.</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr" s="2">
+        <is>
+          <t>- Wait a few seconds before the mice run, at least half a second to see the options.
+- integrate a menu between levels to show on what level you are.</t>
+        </is>
       </c>
     </row>
-    <row r="6">
-      <c s="1" r="A6">
+    <row r="6" spans="1:50" ht="15.75">
+      <c r="A6" t="n" s="1">
         <v>41962.996705717596</v>
       </c>
-      <c s="2" r="B6">
+      <c r="B6" t="n" s="2">
         <v>21.0</v>
       </c>
-      <c t="s" s="2" r="C6">
-        <v>68</v>
-      </c>
-      <c t="s" s="2" r="D6">
-        <v>69</v>
-      </c>
-      <c t="s" s="2" r="E6">
-        <v>70</v>
-      </c>
-      <c t="s" s="2" r="F6">
-        <v>71</v>
-      </c>
-      <c t="s" s="2" r="G6">
-        <v>72</v>
-      </c>
-      <c t="s" s="2" r="H6">
-        <v>73</v>
-      </c>
-      <c t="s" s="2" r="I6">
-        <v>74</v>
-      </c>
-      <c t="s" s="2" r="J6">
-        <v>75</v>
-      </c>
-      <c t="s" s="2" r="K6">
-        <v>76</v>
-      </c>
-      <c t="s" s="2" r="L6">
-        <v>77</v>
-      </c>
-      <c t="s" s="2" r="N6">
-        <v>78</v>
-      </c>
-      <c t="s" s="2" r="O6">
-        <v>79</v>
-      </c>
-      <c t="s" s="2" r="P6">
-        <v>80</v>
+      <c r="C6" t="inlineStr" s="2">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr" s="2">
+        <is>
+          <t>6. in between</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr" s="2">
+        <is>
+          <t>7. No unnecessary procedures / Minimal to no fiddliness / Very few if any exceptions to rules / Very streamlined.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr" s="2">
+        <is>
+          <t>6. In between</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr" s="2">
+        <is>
+          <t>5. The game’s length is somewhat too short or too long for what it offers.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr" s="2">
+        <is>
+          <t>5. The mechanics and the theme are a fairly good match / A few elements of the game do not “fit” well but most of them do.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr" s="2">
+        <is>
+          <t>5. Some moments of emotional connection or tension during the game / Somewhat interesting theme / The game was somewhat fun to play but still had a few areas that were lacking.</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr" s="2">
+        <is>
+          <t>Daily</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr" s="2">
+        <is>
+          <t>Puzzle / Strategic</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr" s="2">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr" s="2">
+        <is>
+          <t>You have to be quick, but if you fail, you can quickly try again (only press one button - which is perfect)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr" s="2">
+        <is>
+          <t>Poor explanation in the beginning, but it's easy to understand after one time playing.</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr" s="2">
+        <is>
+          <t>The possibility to see how many levels you've completed already and how many there are left</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr" s="2">
+        <is>
+          <t>The possibility to see how many levels you've completed already and how many there are left</t>
+        </is>
       </c>
     </row>
-    <row r="7">
-      <c s="1" r="A7">
+    <row r="7" spans="1:50" ht="15.75">
+      <c r="A7" t="n" s="1">
         <v>41963.04072999999</v>
       </c>
-      <c s="2" r="B7">
+      <c r="B7" t="n" s="2">
         <v>22.0</v>
       </c>
-      <c t="s" s="2" r="C7">
-        <v>81</v>
-      </c>
-      <c t="s" s="2" r="D7">
-        <v>82</v>
-      </c>
-      <c t="s" s="2" r="E7">
-        <v>83</v>
-      </c>
-      <c t="s" s="2" r="F7">
-        <v>84</v>
-      </c>
-      <c t="s" s="2" r="G7">
-        <v>85</v>
-      </c>
-      <c t="s" s="2" r="H7">
-        <v>86</v>
-      </c>
-      <c t="s" s="2" r="I7">
-        <v>87</v>
-      </c>
-      <c t="s" s="2" r="J7">
-        <v>88</v>
-      </c>
-      <c t="s" s="2" r="K7">
-        <v>89</v>
-      </c>
-      <c t="s" s="2" r="L7">
-        <v>90</v>
-      </c>
-      <c t="s" s="2" r="N7">
-        <v>91</v>
-      </c>
-      <c t="s" s="2" r="O7">
-        <v>92</v>
-      </c>
-      <c t="s" s="2" r="P7">
-        <v>93</v>
+      <c r="C7" t="inlineStr" s="2">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr" s="2">
+        <is>
+          <t>7. Very streamlined layout / The players can easily see what is going on in all areas of the game / Rules are very clear and easy to understand (no areas of ambiguity).</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr" s="2">
+        <is>
+          <t>6. In between</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr" s="2">
+        <is>
+          <t>7. Very balanced game that is fair / No strategic loopholes / Any and all elements of luck in the game are appropriate in their significance.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr" s="2">
+        <is>
+          <t>2. In between</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr" s="2">
+        <is>
+          <t>6. In between</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr" s="2">
+        <is>
+          <t>4. In between</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr" s="2">
+        <is>
+          <t>Almost never</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr" s="2">
+        <is>
+          <t>Puzzle</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr" s="2">
+        <is>
+          <t>Depends on the game</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr" s="2">
+        <is>
+          <t>The various manners in which the mice appear (slow, fast, two at the same time, different number of mouse traps etc.)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr" s="2">
+        <is>
+          <t>There should be more levels.</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr" s="2">
+        <is>
+          <t>Whenever a mouse gets trapped my screen should be covered with its blood and intestines. </t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr" s="2">
+        <is>
+          <t>Whenever a mouse gets trapped my screen should be covered with its blood and intestines. </t>
+        </is>
       </c>
     </row>
-    <row r="8">
-      <c s="1" r="A8">
+    <row r="8" spans="1:50" ht="15.75">
+      <c r="A8" t="n" s="1">
         <v>41963.46009446759</v>
       </c>
-      <c s="2" r="B8">
+      <c r="B8" t="n" s="2">
         <v>23.0</v>
       </c>
-      <c t="s" s="2" r="C8">
-        <v>94</v>
-      </c>
-      <c t="s" s="2" r="D8">
-        <v>95</v>
-      </c>
-      <c t="s" s="2" r="E8">
-        <v>96</v>
-      </c>
-      <c t="s" s="2" r="F8">
-        <v>97</v>
-      </c>
-      <c t="s" s="2" r="G8">
-        <v>98</v>
-      </c>
-      <c t="s" s="2" r="H8">
-        <v>99</v>
-      </c>
-      <c t="s" s="2" r="I8">
-        <v>100</v>
-      </c>
-      <c t="s" s="2" r="J8">
-        <v>101</v>
-      </c>
-      <c t="s" s="2" r="K8">
-        <v>102</v>
-      </c>
-      <c t="s" s="2" r="L8">
-        <v>103</v>
-      </c>
-      <c t="s" s="2" r="M8">
-        <v>104</v>
-      </c>
-      <c t="s" s="2" r="N8">
-        <v>105</v>
-      </c>
-      <c t="s" s="2" r="O8">
-        <v>106</v>
-      </c>
-      <c t="s" s="2" r="P8">
-        <v>107</v>
-      </c>
-      <c t="s" s="2" r="Q8">
-        <v>108</v>
+      <c r="C8" t="inlineStr" s="2">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr" s="2">
+        <is>
+          <t>7. Very streamlined layout / The players can easily see what is going on in all areas of the game / Rules are very clear and easy to understand (no areas of ambiguity).</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr" s="2">
+        <is>
+          <t>7. No unnecessary procedures / Minimal to no fiddliness / Very few if any exceptions to rules / Very streamlined.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr" s="2">
+        <is>
+          <t>5. More balanced than imbalanced / Has some small areas with loopholes that need fixing / Many of the luck elements are appropriate but a few are still too significant.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr" s="2">
+        <is>
+          <t>6. In between</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr" s="2">
+        <is>
+          <t>7. The mechanics and the theme strongly compliment each other / The various elements strongly integrate to create a unified game.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr" s="2">
+        <is>
+          <t>6. In between</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr" s="2">
+        <is>
+          <t>Daily</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr" s="2">
+        <is>
+          <t>puzzle</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr" s="2">
+        <is>
+          <t>Depends on the game</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr" s="2">
+        <is>
+          <t>stick hero</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr" s="2">
+        <is>
+          <t>addictive and fun</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr" s="2">
+        <is>
+          <t>te grote verschillen in moeilijkheid tussen verschillende levels</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr" s="2">
+        <is>
+          <t>een kader dat laat zien in welk level je zit.</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr" s="2">
+        <is>
+          <t>een kader dat laat zien in welk level je zit.</t>
+        </is>
       </c>
     </row>
-    <row r="9">
-      <c s="1" r="A9">
+    <row r="9" spans="1:50" ht="15.75">
+      <c r="A9" t="n" s="1">
         <v>41963.91074503472</v>
       </c>
-      <c s="2" r="B9">
+      <c r="B9" t="n" s="2">
         <v>24.0</v>
       </c>
-      <c t="s" s="2" r="C9">
-        <v>109</v>
-      </c>
-      <c t="s" s="2" r="D9">
-        <v>110</v>
-      </c>
-      <c t="s" s="2" r="E9">
-        <v>111</v>
-      </c>
-      <c t="s" s="2" r="F9">
-        <v>112</v>
-      </c>
-      <c t="s" s="2" r="G9">
-        <v>113</v>
-      </c>
-      <c t="s" s="2" r="H9">
-        <v>114</v>
-      </c>
-      <c t="s" s="2" r="I9">
-        <v>115</v>
-      </c>
-      <c t="s" s="2" r="J9">
-        <v>116</v>
-      </c>
-      <c t="s" s="2" r="K9">
-        <v>117</v>
-      </c>
-      <c t="s" s="2" r="L9">
-        <v>118</v>
-      </c>
-      <c t="s" s="2" r="M9">
-        <v>119</v>
-      </c>
-      <c t="s" s="2" r="N9">
-        <v>120</v>
-      </c>
-      <c t="s" s="2" r="O9">
-        <v>121</v>
-      </c>
-      <c t="s" s="2" r="P9">
-        <v>122</v>
-      </c>
-      <c t="s" s="2" r="Q9">
-        <v>123</v>
+      <c r="C9" t="inlineStr" s="2">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr" s="2">
+        <is>
+          <t>5. Somewhat streamlined layout / Rules are somewhat clear and easy to understand.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr" s="2">
+        <is>
+          <t>7. No unnecessary procedures / Minimal to no fiddliness / Very few if any exceptions to rules / Very streamlined.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr" s="2">
+        <is>
+          <t>5. More balanced than imbalanced / Has some small areas with loopholes that need fixing / Many of the luck elements are appropriate but a few are still too significant.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr" s="2">
+        <is>
+          <t>7. The game’s length is appropriate for what it offers.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr" s="2">
+        <is>
+          <t>7. The mechanics and the theme strongly compliment each other / The various elements strongly integrate to create a unified game.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr" s="2">
+        <is>
+          <t>5. Some moments of emotional connection or tension during the game / Somewhat interesting theme / The game was somewhat fun to play but still had a few areas that were lacking.</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr" s="2">
+        <is>
+          <t>Weekly</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr" s="2">
+        <is>
+          <t>Puzzle</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr" s="2">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr" s="2">
+        <is>
+          <t>Where's my water, lemmings</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr" s="2">
+        <is>
+          <t>Fast paced
+Easy to learn</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr" s="2">
+        <is>
+          <t>The game immediately starts, hence making it very hard to use branches on the upper part of the screen in the beginning or working out a strategy beforehand.</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr" s="2">
+        <is>
+          <t>Make the locations where a new path can be drawn more visible.
+Add the possibility to track level progress and/or replay previous levels.
+Add a quick retry button (similar to the home button)</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr" s="2">
+        <is>
+          <t>Make the locations where a new path can be drawn more visible.
+Add the possibility to track level progress and/or replay previous levels.
+Add a quick retry button (similar to the home button)</t>
+        </is>
       </c>
     </row>
-    <row r="10">
-      <c s="1" r="A10">
+    <row r="10" spans="1:50" ht="15.75">
+      <c r="A10" t="n" s="1">
         <v>41963.98555642361</v>
       </c>
-      <c s="2" r="B10">
+      <c r="B10" t="n" s="2">
         <v>20.0</v>
       </c>
-      <c t="s" s="2" r="C10">
-        <v>124</v>
-      </c>
-      <c t="s" s="2" r="D10">
-        <v>125</v>
-      </c>
-      <c t="s" s="2" r="E10">
-        <v>126</v>
-      </c>
-      <c t="s" s="2" r="F10">
-        <v>127</v>
-      </c>
-      <c t="s" s="2" r="G10">
-        <v>128</v>
-      </c>
-      <c t="s" s="2" r="H10">
-        <v>129</v>
-      </c>
-      <c t="s" s="2" r="I10">
-        <v>130</v>
-      </c>
-      <c t="s" s="2" r="J10">
-        <v>131</v>
-      </c>
-      <c t="s" s="2" r="K10">
-        <v>132</v>
-      </c>
-      <c t="s" s="2" r="L10">
-        <v>133</v>
-      </c>
-      <c t="s" s="2" r="N10">
-        <v>134</v>
-      </c>
-      <c t="s" s="2" r="O10">
-        <v>135</v>
-      </c>
-      <c t="s" s="2" r="P10">
-        <v>136</v>
+      <c r="C10" t="inlineStr" s="2">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr" s="2">
+        <is>
+          <t>5. Somewhat streamlined layout / Rules are somewhat clear and easy to understand.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr" s="2">
+        <is>
+          <t>7. No unnecessary procedures / Minimal to no fiddliness / Very few if any exceptions to rules / Very streamlined.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr" s="2">
+        <is>
+          <t>7. Very balanced game that is fair / No strategic loopholes / Any and all elements of luck in the game are appropriate in their significance.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr" s="2">
+        <is>
+          <t>6. In between</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr" s="2">
+        <is>
+          <t>6. In between</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr" s="2">
+        <is>
+          <t>5. Some moments of emotional connection or tension during the game / Somewhat interesting theme / The game was somewhat fun to play but still had a few areas that were lacking.</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr" s="2">
+        <is>
+          <t>Daily</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr" s="2">
+        <is>
+          <t>skill/puzzle</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr" s="2">
+        <is>
+          <t>Depends on the game</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr" s="2">
+        <is>
+          <t>Nice evolution in difficulty every level</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr" s="2">
+        <is>
+          <t>Graphics</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr" s="2">
+        <is>
+          <t>More variety, like add other caracters with different properties (speed, ...)</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr" s="2">
+        <is>
+          <t>More variety, like add other caracters with different properties (speed, ...)</t>
+        </is>
       </c>
     </row>
-    <row r="11">
-      <c s="1" r="A11">
+    <row r="11" spans="1:50" ht="15.75">
+      <c r="A11" t="n" s="1">
         <v>41964.60501442129</v>
       </c>
-      <c s="2" r="B11">
+      <c r="B11" t="n" s="2">
         <v>25.0</v>
       </c>
-      <c t="s" s="2" r="C11">
-        <v>137</v>
-      </c>
-      <c t="s" s="2" r="D11">
-        <v>138</v>
-      </c>
-      <c t="s" s="2" r="E11">
-        <v>139</v>
-      </c>
-      <c t="s" s="2" r="F11">
-        <v>140</v>
-      </c>
-      <c t="s" s="2" r="G11">
-        <v>141</v>
-      </c>
-      <c t="s" s="2" r="H11">
-        <v>142</v>
-      </c>
-      <c t="s" s="2" r="I11">
-        <v>143</v>
-      </c>
-      <c t="s" s="2" r="J11">
-        <v>144</v>
-      </c>
-      <c t="s" s="2" r="K11">
-        <v>145</v>
-      </c>
-      <c t="s" s="2" r="L11">
-        <v>146</v>
-      </c>
-      <c t="s" s="2" r="M11">
-        <v>147</v>
-      </c>
-      <c t="s" s="2" r="N11">
-        <v>148</v>
-      </c>
-      <c t="s" s="2" r="O11">
-        <v>149</v>
-      </c>
-      <c t="s" s="2" r="P11">
-        <v>150</v>
+      <c r="C11" t="inlineStr" s="2">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr" s="2">
+        <is>
+          <t>5. Somewhat streamlined layout / Rules are somewhat clear and easy to understand.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr" s="2">
+        <is>
+          <t>7. No unnecessary procedures / Minimal to no fiddliness / Very few if any exceptions to rules / Very streamlined.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr" s="2">
+        <is>
+          <t>5. More balanced than imbalanced / Has some small areas with loopholes that need fixing / Many of the luck elements are appropriate but a few are still too significant.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr" s="2">
+        <is>
+          <t>5. The game’s length is somewhat too short or too long for what it offers.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr" s="2">
+        <is>
+          <t>4. In between</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr" s="2">
+        <is>
+          <t>4. In between</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr" s="2">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr" s="2">
+        <is>
+          <t>Puzzle</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr" s="2">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr" s="2">
+        <is>
+          <t>threes</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr" s="2">
+        <is>
+          <t>The puzzle mechanic! Decisions, impact the next move!</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr" s="2">
+        <is>
+          <t>Graphical design</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr" s="2">
+        <is>
+          <t>make it juicy!</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr" s="2">
+        <is>
+          <t>make it juicy!</t>
+        </is>
       </c>
     </row>
   </sheetData>
